--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1169768.115004731</v>
+        <v>-1172448.97806814</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>345.5566464614921</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>163.61753373832</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>100.2788382172524</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>118.7090489628539</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>145.9219060821655</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>12.48948971234546</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>174.6468529887293</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>179.1551038201997</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>83.20816854426701</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>222.2807060353251</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>189.0846296028988</v>
+        <v>224.4456336730809</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>95.28021021596665</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>167.7155660617057</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089713</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>35.02467705292102</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819335</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>101.9154861872879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523193</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>121.8000472740352</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>118.8241514613401</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>80.33989744908958</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>105.8460632289449</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>142.7059665293327</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824217</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261735</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3430,10 +3430,10 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>990.2034880760491</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="C2" t="n">
-        <v>641.1563704381783</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="D2" t="n">
-        <v>282.8906718314278</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="E2" t="n">
-        <v>282.8906718314278</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="F2" t="n">
-        <v>282.8906718314278</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>282.8906718314278</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2461.047572625153</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2252.301931230978</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1998.720870495157</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>1667.657983151586</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.808578312941</v>
+        <v>1547.749852886077</v>
       </c>
       <c r="X2" t="n">
-        <v>1380.342820051861</v>
+        <v>1547.749852886077</v>
       </c>
       <c r="Y2" t="n">
-        <v>990.2034880760491</v>
+        <v>1157.610520910266</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
@@ -4413,22 +4413,22 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>599.4122767260733</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>400.7850803617177</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C4" t="n">
-        <v>231.8488974338108</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>231.8488974338108</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>231.8488974338108</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>231.8488974338108</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>63.86243274208942</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4519,19 +4519,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>803.2261243354876</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>803.2261243354876</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y4" t="n">
-        <v>582.4335451919575</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1287.435190625613</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="C5" t="n">
-        <v>1287.435190625613</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D5" t="n">
-        <v>929.1694920188622</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="E5" t="n">
-        <v>543.3812394206179</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2047.929728198915</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2047.929728198915</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926626</v>
+        <v>2047.929728198915</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665546</v>
+        <v>1674.463969937836</v>
       </c>
       <c r="Y5" t="n">
-        <v>1674.035030689734</v>
+        <v>1284.324637962024</v>
       </c>
     </row>
     <row r="6">
@@ -4650,22 +4650,22 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100999</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>2015.115393042427</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>599.0346656714327</v>
+        <v>475.2050373426669</v>
       </c>
       <c r="C7" t="n">
-        <v>430.0984827435258</v>
+        <v>475.2050373426669</v>
       </c>
       <c r="D7" t="n">
-        <v>430.0984827435258</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E7" t="n">
-        <v>282.1853891611327</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F7" t="n">
-        <v>135.2954416632223</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>135.2954416632223</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>135.2954416632223</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.233965749941</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V7" t="n">
-        <v>1337.233965749941</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.81679571298</v>
+        <v>703.1945882406842</v>
       </c>
       <c r="X7" t="n">
-        <v>819.8272448149628</v>
+        <v>475.2050373426669</v>
       </c>
       <c r="Y7" t="n">
-        <v>599.0346656714327</v>
+        <v>475.2050373426669</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>842.8595545333294</v>
+        <v>1957.346298904865</v>
       </c>
       <c r="C8" t="n">
-        <v>473.8970375929177</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8970375929177</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,13 +4820,13 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
         <v>2437.640120926626</v>
@@ -4841,13 +4841,13 @@
         <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.064484834343</v>
+        <v>1957.346298904865</v>
       </c>
       <c r="X8" t="n">
-        <v>1619.598726573263</v>
+        <v>1957.346298904865</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.459394597451</v>
+        <v>1957.346298904865</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.0678491612455</v>
+        <v>612.1278795603959</v>
       </c>
       <c r="C10" t="n">
-        <v>455.1316662333386</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="D10" t="n">
-        <v>305.0150268210029</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386098</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4993,19 +4993,19 @@
         <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1141.474570096223</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1141.474570096223</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="W10" t="n">
-        <v>852.0574000592628</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="X10" t="n">
-        <v>624.0678491612455</v>
+        <v>793.7763443906356</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.0678491612455</v>
+        <v>793.7763443906356</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,13 +5051,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.2677182139842</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>530.3315352860773</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>880.9161830442239</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>184.7035232280583</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836056</v>
+        <v>734.6461798836004</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>565.7099969556936</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>415.5933575433578</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>415.5933575433578</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>268.7034100454474</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>101.5073107603274</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5440,46 +5440,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138402</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C19" t="n">
-        <v>390.823249958218</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7066105458822</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>437.6395929733552</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>483.8760050556308</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>483.8760050556308</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>483.8760050556308</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>316.6799057705107</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>174.9680746127088</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6078,7 +6078,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>379.6759351444937</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6926,13 +6926,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -7023,13 +7023,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7078,7 +7078,7 @@
         <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7306,67 +7306,67 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345466</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.373419438401</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717213</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7555,25 +7555,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,31 +7807,31 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8061,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.454437538929426</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179981</v>
+        <v>255.5240487471574</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071647</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,25 +8298,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>255.5240487471574</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>186.5911984019043</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>30.36925650589467</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-1.317548669116374e-14</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.773338340300088e-13</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-3.824271744423714e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.71624530951553</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>230.5319197545591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856178</v>
+        <v>81.26583631856646</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>183.5599762991738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>65.33133491133997</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>132.6809716109919</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>45.44677382459267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>46.69998683092879</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9259388694759565</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>22.81817176293617</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.267520046882033e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-7.247535904753022e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048895</v>
+        <v>152326.9268048894</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194636</v>
@@ -26320,25 +26320,25 @@
         <v>184734.3982194636</v>
       </c>
       <c r="E2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="F2" t="n">
         <v>181607.9849302514</v>
       </c>
       <c r="G2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
         <v>181607.9849302514</v>
       </c>
       <c r="I2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="J2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="K2" t="n">
         <v>181607.9849302514</v>
-      </c>
-      <c r="J2" t="n">
-        <v>181607.9849302514</v>
-      </c>
-      <c r="K2" t="n">
-        <v>181607.9849302515</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
@@ -26350,10 +26350,10 @@
         <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="P2" t="n">
         <v>184734.3982194636</v>
-      </c>
-      <c r="P2" t="n">
-        <v>184734.3982194637</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49700.31489448728</v>
+        <v>49700.31489448738</v>
       </c>
       <c r="C4" t="n">
         <v>131909.7268316249</v>
@@ -26424,40 +26424,40 @@
         <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707411</v>
+        <v>6897.424496707337</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707383</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.4244967074</v>
+        <v>6897.424496707382</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707383</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707328</v>
       </c>
       <c r="L4" t="n">
-        <v>14888.28375980085</v>
+        <v>14888.28375980083</v>
       </c>
       <c r="M4" t="n">
+        <v>14888.28375980083</v>
+      </c>
+      <c r="N4" t="n">
         <v>14888.28375980084</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>14888.28375980083</v>
+      </c>
+      <c r="P4" t="n">
         <v>14888.28375980082</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14888.28375980084</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14888.28375980083</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1105062.944105362</v>
+        <v>-1105423.02712108</v>
       </c>
       <c r="C6" t="n">
-        <v>-40113.10105200602</v>
+        <v>-40113.10105200605</v>
       </c>
       <c r="D6" t="n">
-        <v>-40113.10105200598</v>
+        <v>-40113.10105200604</v>
       </c>
       <c r="E6" t="n">
-        <v>-433897.4110149089</v>
+        <v>-433932.1489403447</v>
       </c>
       <c r="F6" t="n">
-        <v>73588.03060963668</v>
+        <v>73553.29268420121</v>
       </c>
       <c r="G6" t="n">
-        <v>73588.03060963686</v>
+        <v>73553.2926842013</v>
       </c>
       <c r="H6" t="n">
-        <v>73588.03060963705</v>
+        <v>73553.29268420121</v>
       </c>
       <c r="I6" t="n">
-        <v>73588.03060963693</v>
+        <v>73553.29268420118</v>
       </c>
       <c r="J6" t="n">
-        <v>-94017.1472003456</v>
+        <v>-94051.88512578153</v>
       </c>
       <c r="K6" t="n">
-        <v>73588.03060963699</v>
+        <v>73553.29268420124</v>
       </c>
       <c r="L6" t="n">
-        <v>47254.28061211554</v>
+        <v>47254.2806121156</v>
       </c>
       <c r="M6" t="n">
-        <v>-65925.29512317924</v>
+        <v>-65925.29512317915</v>
       </c>
       <c r="N6" t="n">
         <v>66681.99860574739</v>
       </c>
       <c r="O6" t="n">
+        <v>66681.99860574745</v>
+      </c>
+      <c r="P6" t="n">
         <v>66681.99860574739</v>
-      </c>
-      <c r="P6" t="n">
-        <v>66681.99860574747</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,22 +26966,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>137.4010188240854</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>23.17337718154192</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>33.91007409977183</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>134.7620194427834</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27591,7 +27591,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>232.2291927529822</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>71.89014630826227</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>21.58842665963356</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>64.24229230126588</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>160.1563391145142</v>
+        <v>124.7953350443321</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>71.96661088266119</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>118.5115880594949</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28561,10 +28561,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>229.6463482471735</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32798,10 +32798,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,22 +33500,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33743,16 +33743,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34781,13 +34781,13 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>304.1347981767797</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>622.455381029198</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35018,25 +35018,25 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
+        <v>297.6803606378502</v>
+      </c>
+      <c r="M6" t="n">
+        <v>622.455381029198</v>
+      </c>
+      <c r="N6" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="M6" t="n">
-        <v>366.9313322820406</v>
-      </c>
-      <c r="N6" t="n">
-        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>436.2707275254367</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>280.048785629427</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.4543240367771</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>91.80490927281453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.34201431913</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010452</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,10 +36446,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,19 +37151,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37391,16 +37391,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
